--- a/kimba2-test-survey.xlsx
+++ b/kimba2-test-survey.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\kimba-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2EBD09E-F6C5-464C-9781-1A45E7C91409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7AA930-0C2C-4BB5-9D2D-F5B9F3F526B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="196">
   <si>
     <t>Description</t>
   </si>
@@ -92,9 +92,6 @@
     <t>Not tested</t>
   </si>
   <si>
-    <t>Total Time Spent, h</t>
-  </si>
-  <si>
     <t>Test Type</t>
   </si>
   <si>
@@ -111,9 +108,6 @@
   </si>
   <si>
     <t>Tester</t>
-  </si>
-  <si>
-    <t>Submodule 1</t>
   </si>
   <si>
     <t>MAT</t>
@@ -267,9 +261,6 @@
     <t>Smoke Test</t>
   </si>
   <si>
-    <t>Submodule 2</t>
-  </si>
-  <si>
     <t>Load images from a selected folder.</t>
   </si>
   <si>
@@ -363,9 +354,6 @@
     <t>Image is auto-optimized.</t>
   </si>
   <si>
-    <t>Submodule 3</t>
-  </si>
-  <si>
     <t>Options menu</t>
   </si>
   <si>
@@ -381,9 +369,6 @@
     <t>Make sure that UI for width and height parameters are user-friednly.</t>
   </si>
   <si>
-    <t>Submodule 4</t>
-  </si>
-  <si>
     <t>Make sure help web-page is working.</t>
   </si>
   <si>
@@ -427,13 +412,238 @@
   </si>
   <si>
     <t>QATC-911432</t>
+  </si>
+  <si>
+    <t>Check if parameter dimension fields can be a non-int number</t>
+  </si>
+  <si>
+    <t>Check if parameter diemnsion fields can accept non-numerical characters</t>
+  </si>
+  <si>
+    <t>Parameter fields can be non-int numbers</t>
+  </si>
+  <si>
+    <t>Parameter fields cannot be non-numerical numbers.</t>
+  </si>
+  <si>
+    <t>QATC-911654</t>
+  </si>
+  <si>
+    <t>Module 3</t>
+  </si>
+  <si>
+    <t>Module 4</t>
+  </si>
+  <si>
+    <t>Module 2</t>
+  </si>
+  <si>
+    <t>Module 1</t>
+  </si>
+  <si>
+    <t>Module 5</t>
+  </si>
+  <si>
+    <t>Verify that selecting more than one picture allows user to edit every selected at once.</t>
+  </si>
+  <si>
+    <t>Selecting and editing edits all selected pictures.</t>
+  </si>
+  <si>
+    <t>QATC-911296</t>
+  </si>
+  <si>
+    <t>Check that the cover picture is visually marked with a border.</t>
+  </si>
+  <si>
+    <t>Cover picture has a border.</t>
+  </si>
+  <si>
+    <t>QATC-911581</t>
+  </si>
+  <si>
+    <t>GUI</t>
+  </si>
+  <si>
+    <t>Check if refreshing the main window forgets the changes made to the images.</t>
+  </si>
+  <si>
+    <t>Refreshing doesn't affect changes made to the images.</t>
+  </si>
+  <si>
+    <t>Module 6</t>
+  </si>
+  <si>
+    <t>Optimize</t>
+  </si>
+  <si>
+    <t>Check if changes apply in main window after editing from Optimize window.</t>
+  </si>
+  <si>
+    <t>Changes apply.</t>
+  </si>
+  <si>
+    <t>QATC-911291</t>
+  </si>
+  <si>
+    <t>QATC-911293</t>
+  </si>
+  <si>
+    <t>Verify that EXIF data is available for every picture.</t>
+  </si>
+  <si>
+    <t>EXIF data is available for every image.</t>
+  </si>
+  <si>
+    <t>QATC-911271</t>
+  </si>
+  <si>
+    <t>Create Gallery</t>
+  </si>
+  <si>
+    <t>Check if rotate left button is working.</t>
+  </si>
+  <si>
+    <t>Check if red-eye-reduction button is working.</t>
+  </si>
+  <si>
+    <t>Check if rotate right button is working.</t>
+  </si>
+  <si>
+    <t>Check if flip horizontal button is working.</t>
+  </si>
+  <si>
+    <t>Check if flip vertical button is working.</t>
+  </si>
+  <si>
+    <t>Check if auto-optimize button is working.</t>
+  </si>
+  <si>
+    <t>Check if sharpness slide is working.</t>
+  </si>
+  <si>
+    <t>Check if brightness slide is working.</t>
+  </si>
+  <si>
+    <t>Check if contrast slide is working.</t>
+  </si>
+  <si>
+    <t>Rotate left button works.</t>
+  </si>
+  <si>
+    <t>Rorate right button works.</t>
+  </si>
+  <si>
+    <t>Flip horizontal button works.</t>
+  </si>
+  <si>
+    <t>Flip vertical button works.</t>
+  </si>
+  <si>
+    <t>Auto-optimize button works.</t>
+  </si>
+  <si>
+    <t>Red-eye-reduction button works.</t>
+  </si>
+  <si>
+    <t>Sharpness slide works.</t>
+  </si>
+  <si>
+    <t>Brightness slide works.</t>
+  </si>
+  <si>
+    <t>Contrast slide works.</t>
+  </si>
+  <si>
+    <t>QATC-911282</t>
+  </si>
+  <si>
+    <t>QATC-911281</t>
+  </si>
+  <si>
+    <t>QATC-911284</t>
+  </si>
+  <si>
+    <t>"Apply to all" button appears.</t>
+  </si>
+  <si>
+    <t>QATC-911295</t>
+  </si>
+  <si>
+    <t>QATC-9112442</t>
+  </si>
+  <si>
+    <t>Toolbars are visible like in requirements.</t>
+  </si>
+  <si>
+    <t>Check if toolbars are visible like in requirements.</t>
+  </si>
+  <si>
+    <t>QATC-911189</t>
+  </si>
+  <si>
+    <t>Check if there are vertical dividers between menus like in requirements.</t>
+  </si>
+  <si>
+    <t>Module 7</t>
+  </si>
+  <si>
+    <t>Vertical dividers are visible between menus.</t>
+  </si>
+  <si>
+    <t>QATC-911193</t>
+  </si>
+  <si>
+    <t>Check if pictures are displayed in the full width of main window.</t>
+  </si>
+  <si>
+    <t>Images take up the whole width of main window.</t>
+  </si>
+  <si>
+    <t>QATC-911210</t>
+  </si>
+  <si>
+    <t>Check if there's an unused EXIF field.</t>
+  </si>
+  <si>
+    <t>There's no unused EXIF field.</t>
+  </si>
+  <si>
+    <t>QATC-911272</t>
+  </si>
+  <si>
+    <t>Verify that order by random is available even if image folder is not loaded.</t>
+  </si>
+  <si>
+    <t>Order by random option is not available when the image folder is not loaded.</t>
+  </si>
+  <si>
+    <t>QATC-911471</t>
+  </si>
+  <si>
+    <t>Verify that community logo watermark is on top right of big pictures when the user creates gallery.</t>
+  </si>
+  <si>
+    <t>Community logo watermark is on top right of big pictures.</t>
+  </si>
+  <si>
+    <t>QATC-911712</t>
+  </si>
+  <si>
+    <t>Verify that after selecting several images instead of "Apply" the button becomes "Apply to all".</t>
+  </si>
+  <si>
+    <t>Total Time Spent</t>
+  </si>
+  <si>
+    <t>3.75h</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -526,8 +736,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="4"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF4D5361"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF4D5361"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -570,8 +807,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -640,15 +883,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -656,34 +890,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -691,23 +910,14 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -721,28 +931,17 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -755,7 +954,68 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in 20% - Accent4" xfId="2" xr:uid="{7FAAFD55-585A-424C-B377-2E80348FC175}"/>
@@ -763,7 +1023,127 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_NRA_Acceptance Sheet" xfId="3" xr:uid="{60C67CFB-83C5-4608-9D10-1C64BFFE36BC}"/>
   </cellStyles>
-  <dxfs count="280">
+  <dxfs count="185">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD8BFEB"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF8064A2"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC3DFF9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4F81BD"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF363636"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF2F2F2"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -3040,246 +3420,6 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD8BFEB"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8064A2"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC3DFF9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF4F81BD"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF363636"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF2F2F2"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD8BFEB"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8064A2"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC3DFF9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF4F81BD"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF363636"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF2F2F2"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF9BBB59"/>
         </patternFill>
       </fill>
@@ -3734,6 +3874,126 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD8BFEB"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF8064A2"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC3DFF9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4F81BD"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF363636"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF2F2F2"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF9BBB59"/>
         </patternFill>
       </fill>
@@ -4869,147 +5129,99 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF9BBB59"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF625B38"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1E3E20"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8AC181"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF963634"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDA9694"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF963634"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF632523"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF363600"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD8BFEB"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF8064A2"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC3DFF9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4F81BD"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF363636"/>
       </font>
       <fill>
         <patternFill>
@@ -5030,2121 +5242,6 @@
           <color auto="1"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC3DFF9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF4F81BD"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FFD8BFEB"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8064A2"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9BBB59"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF625B38"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1E3E20"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8AC181"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF963634"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDA9694"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF963634"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF632523"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF363600"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF2F2F2"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC3DFF9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF4F81BD"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FFD8BFEB"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8064A2"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9BBB59"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF625B38"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1E3E20"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8AC181"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF963634"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDA9694"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF963634"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF632523"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF363600"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF2F2F2"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC3DFF9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF4F81BD"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FFD8BFEB"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8064A2"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9BBB59"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF625B38"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1E3E20"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8AC181"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF963634"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDA9694"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF963634"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF632523"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF363600"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF2F2F2"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC3DFF9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF4F81BD"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FFD8BFEB"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8064A2"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9BBB59"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF625B38"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1E3E20"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8AC181"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF963634"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDA9694"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF963634"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF632523"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF363600"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF2F2F2"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC3DFF9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF4F81BD"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FFD8BFEB"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8064A2"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9BBB59"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF625B38"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1E3E20"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8AC181"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF963634"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDA9694"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF963634"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF632523"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF363600"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF2F2F2"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC3DFF9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF4F81BD"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FFD8BFEB"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8064A2"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9BBB59"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF625B38"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1E3E20"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8AC181"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF963634"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDA9694"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF963634"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF632523"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF363600"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF2F2F2"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC3DFF9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF4F81BD"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FFD8BFEB"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8064A2"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9BBB59"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF625B38"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1E3E20"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8AC181"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF963634"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDA9694"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF963634"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF632523"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF363600"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF2F2F2"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC3DFF9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF4F81BD"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FFD8BFEB"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8064A2"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD8BFEB"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8064A2"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC3DFF9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF4F81BD"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF363636"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF2F2F2"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD8BFEB"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8064A2"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC3DFF9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF4F81BD"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF363636"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF2F2F2"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9BBB59"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF625B38"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1E3E20"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8AC181"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF963634"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDA9694"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF963634"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF632523"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF363600"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF2F2F2"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC3DFF9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF4F81BD"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FFD8BFEB"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8064A2"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -7189,9 +5286,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -7460,10 +5557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7478,1527 +5575,2103 @@
     <col min="8" max="8" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="29"/>
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="29"/>
+      <c r="F2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="9">
+        <v>45735</v>
+      </c>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="28"/>
+      <c r="F3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="11">
+        <f>(SUM(D5:D14))</f>
+        <v>60</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="11">
+        <v>31</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="11">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="11">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="11">
+        <v>8</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="11">
+        <v>4</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="11">
+        <v>8</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="11">
+        <v>6</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="11">
         <v>1</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="11">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="11">
         <v>2</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="2" t="s">
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="45" t="s">
+        <v>194</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" ht="36" x14ac:dyDescent="0.25">
+      <c r="A18" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="17"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="21"/>
+      <c r="C20" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="16">
-        <v>45735</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="15" t="s">
+      <c r="B21" s="21"/>
+      <c r="C21" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="A22" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="21"/>
+      <c r="C22" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="A23" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="21"/>
+      <c r="C23" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="17"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="A24" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="21"/>
+      <c r="C24" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="35"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="A25" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="21"/>
+      <c r="C25" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="35"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="A26" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="21"/>
+      <c r="C26" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="35"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="A27" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="21"/>
+      <c r="C27" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="35"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="21"/>
+      <c r="C28" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="36"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="1:8" ht="36" x14ac:dyDescent="0.25">
+      <c r="A29" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="21"/>
+      <c r="C29" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" s="17"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:8" ht="36" x14ac:dyDescent="0.25">
+      <c r="A30" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="21"/>
+      <c r="C30" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="35"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="A31" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="21"/>
+      <c r="C31" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="12" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="20">
-        <f>(SUM(D5:D14))</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9" t="s">
+      <c r="E31" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9" t="s">
+      <c r="F31" s="17"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="A32" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="21"/>
+      <c r="C32" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="17"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="A33" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="21"/>
+      <c r="C33" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="41"/>
+      <c r="B34" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F35" s="17"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" s="23"/>
+      <c r="C36" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36" s="17"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="23"/>
+      <c r="C37" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F37" s="17"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" s="23"/>
+      <c r="C38" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38" s="17"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" s="23"/>
+      <c r="C39" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F39" s="19"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" s="23"/>
+      <c r="C40" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40" s="17"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" s="23"/>
+      <c r="C41" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F41" s="35"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" s="23"/>
+      <c r="C42" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F42" s="35"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43" s="23"/>
+      <c r="C43" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F43" s="35"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44" s="23"/>
+      <c r="C44" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="B45" s="23"/>
+      <c r="C45" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F45" s="35"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+    </row>
+    <row r="46" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="A46" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46" s="23"/>
+      <c r="C46" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F46" s="17"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+    </row>
+    <row r="47" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="A47" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47" s="23"/>
+      <c r="C47" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+    </row>
+    <row r="48" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="A48" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="B48" s="24"/>
+      <c r="C48" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="41"/>
+      <c r="B49" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="C49" s="38"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+    </row>
+    <row r="50" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="A50" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B51" s="23"/>
+      <c r="C51" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B52" s="23"/>
+      <c r="C52" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F52" s="17"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B53" s="23"/>
+      <c r="C53" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F53" s="17"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B54" s="23"/>
+      <c r="C54" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F54" s="19"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+    </row>
+    <row r="55" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B55" s="23"/>
+      <c r="C55" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F55" s="17"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B56" s="23"/>
+      <c r="C56" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="E56" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B57" s="23"/>
+      <c r="C57" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B58" s="23"/>
+      <c r="C58" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="D58" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="E58" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B59" s="23"/>
+      <c r="C59" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="E59" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+    </row>
+    <row r="60" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B60" s="23"/>
+      <c r="C60" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="D60" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="E60" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+    </row>
+    <row r="61" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B61" s="24"/>
+      <c r="C61" s="44" t="s">
+        <v>193</v>
+      </c>
+      <c r="D61" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="E61" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="41"/>
+      <c r="B62" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="C62" s="38"/>
+      <c r="D62" s="38"/>
+      <c r="E62" s="38"/>
+      <c r="F62" s="37"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="B63" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E63" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F63" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+    </row>
+    <row r="64" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="A64" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B64" s="23"/>
+      <c r="C64" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E64" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F64" s="17"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+    </row>
+    <row r="65" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="A65" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B65" s="23"/>
+      <c r="C65" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="E65" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F65" s="17"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+    </row>
+    <row r="66" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="A66" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B66" s="23"/>
+      <c r="C66" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E66" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F66" s="19"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B67" s="23"/>
+      <c r="C67" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D67" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E67" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" s="17"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B68" s="23"/>
+      <c r="C68" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D68" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E68" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F68" s="35"/>
+      <c r="G68" s="2"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B69" s="23"/>
+      <c r="C69" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="D69" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="E69" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F69" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="G69" s="2"/>
+    </row>
+    <row r="70" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="A70" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B70" s="24"/>
+      <c r="C70" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="D70" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="E70" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F70" s="36"/>
+      <c r="G70" s="2"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="41"/>
+      <c r="B71" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="C71" s="38"/>
+      <c r="D71" s="38"/>
+      <c r="E71" s="38"/>
+      <c r="F71" s="37"/>
+      <c r="G71" s="2"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="B72" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D72" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="E72" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F72" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="G72" s="2"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="41"/>
+      <c r="B73" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="C73" s="38"/>
+      <c r="D73" s="38"/>
+      <c r="E73" s="38"/>
+      <c r="F73" s="37"/>
+      <c r="G73" s="2"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B74" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E74" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F74" s="35"/>
+      <c r="G74" s="2"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="B75" s="24"/>
+      <c r="C75" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E75" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F75" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="G75" s="2"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="41"/>
+      <c r="B76" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="C76" s="38"/>
+      <c r="D76" s="38"/>
+      <c r="E76" s="38"/>
+      <c r="F76" s="37"/>
+      <c r="G76" s="2"/>
+    </row>
+    <row r="77" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B77" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="C77" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="D77" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E77" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12" t="s">
+      <c r="F77" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="G77" s="2"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B78" s="23"/>
+      <c r="C78" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D78" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="E78" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F78" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="G78" s="2"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="B79" s="23"/>
+      <c r="C79" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D79" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="E79" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F79" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="G79" s="2"/>
+    </row>
+    <row r="80" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A80" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="B80" s="23"/>
+      <c r="C80" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="D80" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="E80" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F80" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="G80" s="2"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" ht="36" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="25"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="F23" s="25"/>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="1:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="A24" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="29"/>
-      <c r="C24" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="F24" s="26"/>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="1:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="A25" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="29"/>
-      <c r="C25" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="E25" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="F25" s="26"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="29"/>
-      <c r="C26" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="E26" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="F26" s="26"/>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="1:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="32"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="29"/>
-      <c r="C28" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="E28" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="F28" s="13"/>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="1:7" ht="36" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="E29" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="F29" s="25"/>
-      <c r="G29" s="3"/>
-    </row>
-    <row r="30" spans="1:7" ht="36" x14ac:dyDescent="0.25">
-      <c r="A30" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" s="29"/>
-      <c r="C30" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="D30" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="E30" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="F30" s="26"/>
-      <c r="G30" s="3"/>
-    </row>
-    <row r="31" spans="1:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="A31" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" s="29"/>
-      <c r="C31" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="D31" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="E31" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="F31" s="25"/>
-      <c r="G31" s="3"/>
-    </row>
-    <row r="32" spans="1:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="A32" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" s="29"/>
-      <c r="C32" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="D32" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="E32" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="F32" s="25"/>
-    </row>
-    <row r="33" spans="1:6" ht="24" x14ac:dyDescent="0.25">
-      <c r="A33" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" s="29"/>
-      <c r="C33" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="D33" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="E33" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" s="30" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="B35" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="C35" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="D35" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="E35" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="F35" s="25"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" s="36"/>
-      <c r="C36" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="D36" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="E36" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="F36" s="30"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" s="36"/>
-      <c r="C37" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="D37" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="E37" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="F37" s="25"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B38" s="36"/>
-      <c r="C38" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="D38" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="E38" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="F38" s="30"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B39" s="36"/>
-      <c r="C39" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="D39" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="E39" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="F39" s="33"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B40" s="36"/>
-      <c r="C40" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="D40" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="E40" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="F40" s="25"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B41" s="36"/>
-      <c r="C41" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="D41" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="E41" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="F41" s="26"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B42" s="36"/>
-      <c r="C42" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="D42" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="E42" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="F42" s="26"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B43" s="36"/>
-      <c r="C43" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="D43" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="E43" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="F43" s="26"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B44" s="36"/>
-      <c r="C44" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="D44" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="E44" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="F44" s="26"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B45" s="36"/>
-      <c r="C45" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="D45" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="E45" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F45" s="38" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="B46" s="36"/>
-      <c r="C46" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="D46" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="E46" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F46" s="38" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="B47" s="36"/>
-      <c r="C47" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="D47" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="E47" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="F47" s="26"/>
-    </row>
-    <row r="48" spans="1:6" ht="24" x14ac:dyDescent="0.25">
-      <c r="A48" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B48" s="37"/>
-      <c r="C48" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="D48" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="E48" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="F48" s="25"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="12"/>
-      <c r="B49" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="3"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="B50" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="C50" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="D50" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="E50" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F50" s="31" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="B51" s="36"/>
-      <c r="C51" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="D51" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="E51" s="9" t="s">
+      <c r="B81" s="23"/>
+      <c r="C81" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="D81" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="E81" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="F51" s="30"/>
-    </row>
-    <row r="52" spans="1:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="A52" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B52" s="36"/>
-      <c r="C52" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="D52" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="E52" s="24"/>
-      <c r="F52" s="25"/>
-    </row>
-    <row r="53" spans="1:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="A53" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B53" s="36"/>
-      <c r="C53" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="D53" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="E53" s="24"/>
-      <c r="F53" s="30"/>
-    </row>
-    <row r="54" spans="1:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="A54" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B54" s="36"/>
-      <c r="C54" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="D54" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="E54" s="24"/>
-      <c r="F54" s="33"/>
-    </row>
-    <row r="55" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B55" s="36"/>
-      <c r="C55" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="D55" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="E55" s="24"/>
-      <c r="F55" s="25"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B56" s="36"/>
-      <c r="C56" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="D56" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="E56" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="F56" s="26"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="12"/>
-      <c r="B57" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="B58" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="C58" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="D58" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="E58" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="F58" s="30" t="s">
-        <v>114</v>
-      </c>
+      <c r="F81" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="G81" s="2"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="B82" s="23"/>
+      <c r="C82" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="D82" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="E82" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F82" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="G82" s="2"/>
+    </row>
+    <row r="83" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A83" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="B83" s="23"/>
+      <c r="C83" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="D83" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="E83" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F83" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="G83" s="2"/>
+    </row>
+    <row r="84" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A84" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="B84" s="24"/>
+      <c r="C84" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="D84" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="E84" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F84" s="39" t="s">
+        <v>192</v>
+      </c>
+      <c r="G84" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B18:B33"/>
+  <mergeCells count="13">
+    <mergeCell ref="B74:B75"/>
     <mergeCell ref="B35:B48"/>
-    <mergeCell ref="B50:B56"/>
-    <mergeCell ref="A4:A15"/>
-    <mergeCell ref="B4:B15"/>
+    <mergeCell ref="B50:B61"/>
+    <mergeCell ref="B63:B70"/>
+    <mergeCell ref="B77:B84"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
+    <mergeCell ref="B18:B33"/>
+    <mergeCell ref="A4:A15"/>
+    <mergeCell ref="B4:B15"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
-  <conditionalFormatting sqref="C5:C14">
-    <cfRule type="cellIs" dxfId="279" priority="191" operator="equal">
+  <conditionalFormatting sqref="C4 D16:F17 D34:F34 D62:F62 D71:F71 D76:F76 F63:F68 F45:F47 F77:F78 F35:F43 F74 D49:F49 F50:F57">
+    <cfRule type="cellIs" dxfId="184" priority="311" operator="equal">
+      <formula>"not available"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="183" priority="312" operator="equal">
+      <formula>"not tested"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="182" priority="313" operator="equal">
+      <formula>"not implemented"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="181" priority="314" operator="equal">
+      <formula>"failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="180" priority="315" operator="equal">
+      <formula>"passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:C14 E63 E77 E35:E46 E75 E52:E55">
+    <cfRule type="cellIs" dxfId="179" priority="316" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="278" priority="192" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="317" operator="equal">
       <formula>"Not implemented"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="277" priority="193" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="318" operator="equal">
       <formula>"Not tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="276" priority="194" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="319" operator="equal">
       <formula>"Not available"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="275" priority="195" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="320" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="274" priority="196" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="321" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="273" priority="197" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="322" operator="equal">
       <formula>"Average"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="272" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="323" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="271" priority="199" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="324" operator="equal">
       <formula>"Enhancement"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="200" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="325" operator="equal">
       <formula>"Partially tested"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4 C15 D16:F17 D34:F34 D49:F49 D57:F57">
-    <cfRule type="cellIs" dxfId="269" priority="186" operator="equal">
+  <conditionalFormatting sqref="E18:E33">
+    <cfRule type="cellIs" dxfId="169" priority="216" operator="equal">
+      <formula>"Minor"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="168" priority="217" operator="equal">
+      <formula>"Not implemented"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="167" priority="218" operator="equal">
+      <formula>"Not tested"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="166" priority="219" operator="equal">
+      <formula>"Not available"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="165" priority="220" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="164" priority="221" operator="equal">
+      <formula>"Major"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="163" priority="222" operator="equal">
+      <formula>"Average"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="162" priority="223" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="161" priority="224" operator="equal">
+      <formula>"Enhancement"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="160" priority="225" operator="equal">
+      <formula>"Partially tested"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="cellIs" dxfId="159" priority="156" operator="equal">
+      <formula>"Minor"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="158" priority="157" operator="equal">
+      <formula>"Not implemented"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="157" priority="158" operator="equal">
+      <formula>"Not tested"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="156" priority="159" operator="equal">
+      <formula>"Not available"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="155" priority="160" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="154" priority="161" operator="equal">
+      <formula>"Major"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="153" priority="162" operator="equal">
+      <formula>"Average"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="152" priority="163" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="151" priority="164" operator="equal">
+      <formula>"Enhancement"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="150" priority="165" operator="equal">
+      <formula>"Partially tested"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E68">
+    <cfRule type="cellIs" dxfId="149" priority="126" operator="equal">
+      <formula>"Minor"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="148" priority="127" operator="equal">
+      <formula>"Not implemented"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="147" priority="128" operator="equal">
+      <formula>"Not tested"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="146" priority="129" operator="equal">
+      <formula>"Not available"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="145" priority="130" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="144" priority="131" operator="equal">
+      <formula>"Major"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="143" priority="132" operator="equal">
+      <formula>"Average"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="142" priority="133" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="141" priority="134" operator="equal">
+      <formula>"Enhancement"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="140" priority="135" operator="equal">
+      <formula>"Partially tested"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="cellIs" dxfId="139" priority="146" operator="equal">
+      <formula>"Minor"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="138" priority="147" operator="equal">
+      <formula>"Not implemented"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="137" priority="148" operator="equal">
+      <formula>"Not tested"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="136" priority="149" operator="equal">
+      <formula>"Not available"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="135" priority="150" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="134" priority="151" operator="equal">
+      <formula>"Major"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="133" priority="152" operator="equal">
+      <formula>"Average"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="132" priority="153" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="131" priority="154" operator="equal">
+      <formula>"Enhancement"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="130" priority="155" operator="equal">
+      <formula>"Partially tested"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18:F27 F29:F33 F72">
+    <cfRule type="cellIs" dxfId="129" priority="296" operator="equal">
       <formula>"not available"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="268" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="297" operator="equal">
       <formula>"not tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="267" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="298" operator="equal">
       <formula>"not implemented"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="266" priority="189" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="299" operator="equal">
       <formula>"failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="265" priority="190" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="300" operator="equal">
       <formula>"passed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F18:F27 F29:F33 F35:F44 F47:F48 F50:F56 F58">
-    <cfRule type="cellIs" dxfId="264" priority="171" operator="equal">
+  <conditionalFormatting sqref="E64">
+    <cfRule type="cellIs" dxfId="124" priority="116" operator="equal">
+      <formula>"Minor"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="123" priority="117" operator="equal">
+      <formula>"Not implemented"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="122" priority="118" operator="equal">
+      <formula>"Not tested"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="121" priority="119" operator="equal">
+      <formula>"Not available"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="120" priority="120" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="119" priority="121" operator="equal">
+      <formula>"Major"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="118" priority="122" operator="equal">
+      <formula>"Average"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="117" priority="123" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="116" priority="124" operator="equal">
+      <formula>"Enhancement"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="115" priority="125" operator="equal">
+      <formula>"Partially tested"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="cellIs" dxfId="114" priority="106" operator="equal">
+      <formula>"Minor"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="113" priority="107" operator="equal">
+      <formula>"Not implemented"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="112" priority="108" operator="equal">
+      <formula>"Not tested"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="111" priority="109" operator="equal">
+      <formula>"Not available"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="110" priority="110" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="109" priority="111" operator="equal">
+      <formula>"Major"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="108" priority="112" operator="equal">
+      <formula>"Average"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="107" priority="113" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="106" priority="114" operator="equal">
+      <formula>"Enhancement"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="105" priority="115" operator="equal">
+      <formula>"Partially tested"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="cellIs" dxfId="104" priority="96" operator="equal">
+      <formula>"Minor"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="103" priority="97" operator="equal">
+      <formula>"Not implemented"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="98" operator="equal">
+      <formula>"Not tested"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="101" priority="99" operator="equal">
+      <formula>"Not available"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="100" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="99" priority="101" operator="equal">
+      <formula>"Major"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="98" priority="102" operator="equal">
+      <formula>"Average"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="97" priority="103" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="104" operator="equal">
+      <formula>"Enhancement"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="95" priority="105" operator="equal">
+      <formula>"Partially tested"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70">
+    <cfRule type="cellIs" dxfId="94" priority="86" operator="equal">
+      <formula>"Minor"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="93" priority="87" operator="equal">
+      <formula>"Not implemented"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="92" priority="88" operator="equal">
+      <formula>"Not tested"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="91" priority="89" operator="equal">
+      <formula>"Not available"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="90" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="89" priority="91" operator="equal">
+      <formula>"Major"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="92" operator="equal">
+      <formula>"Average"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="87" priority="93" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="86" priority="94" operator="equal">
+      <formula>"Enhancement"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="85" priority="95" operator="equal">
+      <formula>"Partially tested"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67">
+    <cfRule type="cellIs" dxfId="84" priority="76" operator="equal">
+      <formula>"Minor"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="83" priority="77" operator="equal">
+      <formula>"Not implemented"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="78" operator="equal">
+      <formula>"Not tested"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="81" priority="79" operator="equal">
+      <formula>"Not available"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="80" priority="80" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="79" priority="81" operator="equal">
+      <formula>"Major"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="82" operator="equal">
+      <formula>"Average"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="77" priority="83" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="84" operator="equal">
+      <formula>"Enhancement"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="75" priority="85" operator="equal">
+      <formula>"Partially tested"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69">
+    <cfRule type="cellIs" dxfId="74" priority="66" operator="equal">
+      <formula>"Minor"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="67" operator="equal">
+      <formula>"Not implemented"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="68" operator="equal">
+      <formula>"Not tested"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="71" priority="69" operator="equal">
+      <formula>"Not available"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="70" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="69" priority="71" operator="equal">
+      <formula>"Major"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="72" operator="equal">
+      <formula>"Average"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="67" priority="73" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="74" operator="equal">
+      <formula>"Enhancement"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="65" priority="75" operator="equal">
+      <formula>"Partially tested"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="cellIs" dxfId="64" priority="56" operator="equal">
+      <formula>"Minor"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="63" priority="57" operator="equal">
+      <formula>"Not implemented"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="58" operator="equal">
+      <formula>"Not tested"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="59" operator="equal">
+      <formula>"Not available"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="60" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="59" priority="61" operator="equal">
+      <formula>"Major"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="62" operator="equal">
+      <formula>"Average"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="63" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="64" operator="equal">
+      <formula>"Enhancement"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="65" operator="equal">
+      <formula>"Partially tested"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E78:E84">
+    <cfRule type="cellIs" dxfId="54" priority="46" operator="equal">
+      <formula>"Minor"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="47" operator="equal">
+      <formula>"Not implemented"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="48" operator="equal">
+      <formula>"Not tested"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="49" operator="equal">
+      <formula>"Not available"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="50" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="51" operator="equal">
+      <formula>"Major"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="52" operator="equal">
+      <formula>"Average"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="47" priority="53" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="54" operator="equal">
+      <formula>"Enhancement"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="55" operator="equal">
+      <formula>"Partially tested"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50:E51">
+    <cfRule type="cellIs" dxfId="44" priority="36" operator="equal">
+      <formula>"Minor"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="37" operator="equal">
+      <formula>"Not implemented"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="38" operator="equal">
+      <formula>"Not tested"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="39" operator="equal">
+      <formula>"Not available"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="40" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="41" operator="equal">
+      <formula>"Major"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="42" operator="equal">
+      <formula>"Average"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="43" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="44" operator="equal">
+      <formula>"Enhancement"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="35" priority="45" operator="equal">
+      <formula>"Partially tested"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74">
+    <cfRule type="cellIs" dxfId="34" priority="26" operator="equal">
+      <formula>"Minor"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="27" operator="equal">
+      <formula>"Not implemented"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="28" operator="equal">
+      <formula>"Not tested"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="29" operator="equal">
+      <formula>"Not available"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="30" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="31" operator="equal">
+      <formula>"Major"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="32" operator="equal">
+      <formula>"Average"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="33" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="34" operator="equal">
+      <formula>"Enhancement"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="35" operator="equal">
+      <formula>"Partially tested"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56:E60">
+    <cfRule type="cellIs" dxfId="24" priority="16" operator="equal">
+      <formula>"Minor"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="17" operator="equal">
+      <formula>"Not implemented"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="18" operator="equal">
+      <formula>"Not tested"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
+      <formula>"Not available"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
+      <formula>"Major"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="22" operator="equal">
+      <formula>"Average"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="23" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="24" operator="equal">
+      <formula>"Enhancement"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="25" operator="equal">
+      <formula>"Partially tested"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61">
+    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
+      <formula>"Minor"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
+      <formula>"Not implemented"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
+      <formula>"Not tested"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
+      <formula>"Not available"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+      <formula>"Major"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
+      <formula>"Average"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="13" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="14" operator="equal">
+      <formula>"Enhancement"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="15" operator="equal">
+      <formula>"Partially tested"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D73:F73">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"not available"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="263" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"not tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="262" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"not implemented"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="261" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>"failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="260" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>"passed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="249" priority="161" operator="equal">
-      <formula>"Minor"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="248" priority="162" operator="equal">
-      <formula>"Not implemented"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="247" priority="163" operator="equal">
-      <formula>"Not tested"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="164" operator="equal">
-      <formula>"Not available"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="245" priority="165" operator="equal">
-      <formula>"Critical"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="166" operator="equal">
-      <formula>"Major"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="243" priority="167" operator="equal">
-      <formula>"Average"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="242" priority="168" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="241" priority="169" operator="equal">
-      <formula>"Enhancement"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="170" operator="equal">
-      <formula>"Partially tested"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="239" priority="151" operator="equal">
-      <formula>"Minor"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="152" operator="equal">
-      <formula>"Not implemented"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="237" priority="153" operator="equal">
-      <formula>"Not tested"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="236" priority="154" operator="equal">
-      <formula>"Not available"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="235" priority="155" operator="equal">
-      <formula>"Critical"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="156" operator="equal">
-      <formula>"Major"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="233" priority="157" operator="equal">
-      <formula>"Average"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="158" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="231" priority="159" operator="equal">
-      <formula>"Enhancement"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="230" priority="160" operator="equal">
-      <formula>"Partially tested"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23:E31 E39:E42 E44 E47:E48 E54:E56">
-    <cfRule type="cellIs" dxfId="229" priority="141" operator="equal">
-      <formula>"Minor"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="142" operator="equal">
-      <formula>"Not implemented"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="227" priority="143" operator="equal">
-      <formula>"Not tested"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="144" operator="equal">
-      <formula>"Not available"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="145" operator="equal">
-      <formula>"Critical"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="146" operator="equal">
-      <formula>"Major"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="223" priority="147" operator="equal">
-      <formula>"Average"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="148" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="221" priority="149" operator="equal">
-      <formula>"Enhancement"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="150" operator="equal">
-      <formula>"Partially tested"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="219" priority="131" operator="equal">
-      <formula>"Minor"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="132" operator="equal">
-      <formula>"Not implemented"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="133" operator="equal">
-      <formula>"Not tested"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="134" operator="equal">
-      <formula>"Not available"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="215" priority="135" operator="equal">
-      <formula>"Critical"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="136" operator="equal">
-      <formula>"Major"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="137" operator="equal">
-      <formula>"Average"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="138" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="211" priority="139" operator="equal">
-      <formula>"Enhancement"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="140" operator="equal">
-      <formula>"Partially tested"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="209" priority="121" operator="equal">
-      <formula>"Minor"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="122" operator="equal">
-      <formula>"Not implemented"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="207" priority="123" operator="equal">
-      <formula>"Not tested"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="124" operator="equal">
-      <formula>"Not available"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="125" operator="equal">
-      <formula>"Critical"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="126" operator="equal">
-      <formula>"Major"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="203" priority="127" operator="equal">
-      <formula>"Average"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="128" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="129" operator="equal">
-      <formula>"Enhancement"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="130" operator="equal">
-      <formula>"Partially tested"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="199" priority="111" operator="equal">
-      <formula>"Minor"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="112" operator="equal">
-      <formula>"Not implemented"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="113" operator="equal">
-      <formula>"Not tested"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="114" operator="equal">
-      <formula>"Not available"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="115" operator="equal">
-      <formula>"Critical"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="116" operator="equal">
-      <formula>"Major"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="117" operator="equal">
-      <formula>"Average"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="118" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="191" priority="119" operator="equal">
-      <formula>"Enhancement"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="120" operator="equal">
-      <formula>"Partially tested"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="189" priority="101" operator="equal">
-      <formula>"Minor"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="102" operator="equal">
-      <formula>"Not implemented"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="187" priority="103" operator="equal">
-      <formula>"Not tested"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="104" operator="equal">
-      <formula>"Not available"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="105" operator="equal">
-      <formula>"Critical"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="106" operator="equal">
-      <formula>"Major"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="107" operator="equal">
-      <formula>"Average"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="108" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="109" operator="equal">
-      <formula>"Enhancement"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="110" operator="equal">
-      <formula>"Partially tested"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="179" priority="91" operator="equal">
-      <formula>"Minor"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="92" operator="equal">
-      <formula>"Not implemented"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="93" operator="equal">
-      <formula>"Not tested"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="94" operator="equal">
-      <formula>"Not available"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="95" operator="equal">
-      <formula>"Critical"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="96" operator="equal">
-      <formula>"Major"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="97" operator="equal">
-      <formula>"Average"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="98" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="171" priority="99" operator="equal">
-      <formula>"Enhancement"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="100" operator="equal">
-      <formula>"Partially tested"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
-    <cfRule type="cellIs" dxfId="169" priority="81" operator="equal">
-      <formula>"Minor"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="82" operator="equal">
-      <formula>"Not implemented"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="167" priority="83" operator="equal">
-      <formula>"Not tested"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="84" operator="equal">
-      <formula>"Not available"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="85" operator="equal">
-      <formula>"Critical"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="86" operator="equal">
-      <formula>"Major"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="87" operator="equal">
-      <formula>"Average"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="88" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="89" operator="equal">
-      <formula>"Enhancement"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="90" operator="equal">
-      <formula>"Partially tested"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="159" priority="71" operator="equal">
-      <formula>"Minor"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="72" operator="equal">
-      <formula>"Not implemented"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="73" operator="equal">
-      <formula>"Not tested"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="74" operator="equal">
-      <formula>"Not available"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="155" priority="75" operator="equal">
-      <formula>"Critical"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="76" operator="equal">
-      <formula>"Major"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="77" operator="equal">
-      <formula>"Average"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="78" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="79" operator="equal">
-      <formula>"Enhancement"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="80" operator="equal">
-      <formula>"Partially tested"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="149" priority="61" operator="equal">
-      <formula>"Minor"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="62" operator="equal">
-      <formula>"Not implemented"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="63" operator="equal">
-      <formula>"Not tested"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="64" operator="equal">
-      <formula>"Not available"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="65" operator="equal">
-      <formula>"Critical"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="66" operator="equal">
-      <formula>"Major"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="143" priority="67" operator="equal">
-      <formula>"Average"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="68" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="69" operator="equal">
-      <formula>"Enhancement"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="70" operator="equal">
-      <formula>"Partially tested"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37 E52">
-    <cfRule type="cellIs" dxfId="139" priority="51" operator="equal">
-      <formula>"Minor"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="52" operator="equal">
-      <formula>"Not implemented"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="53" operator="equal">
-      <formula>"Not tested"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="54" operator="equal">
-      <formula>"Not available"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="55" operator="equal">
-      <formula>"Critical"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="56" operator="equal">
-      <formula>"Major"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="57" operator="equal">
-      <formula>"Average"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="58" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="131" priority="59" operator="equal">
-      <formula>"Enhancement"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="60" operator="equal">
-      <formula>"Partially tested"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38 E53">
-    <cfRule type="cellIs" dxfId="129" priority="41" operator="equal">
-      <formula>"Minor"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="42" operator="equal">
-      <formula>"Not implemented"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="43" operator="equal">
-      <formula>"Not tested"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="44" operator="equal">
-      <formula>"Not available"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="45" operator="equal">
-      <formula>"Critical"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="46" operator="equal">
-      <formula>"Major"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="47" operator="equal">
-      <formula>"Average"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="48" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="49" operator="equal">
-      <formula>"Enhancement"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="50" operator="equal">
-      <formula>"Partially tested"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45:E46">
-    <cfRule type="cellIs" dxfId="119" priority="31" operator="equal">
-      <formula>"Minor"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="32" operator="equal">
-      <formula>"Not implemented"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="33" operator="equal">
-      <formula>"Not tested"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="34" operator="equal">
-      <formula>"Not available"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="35" operator="equal">
-      <formula>"Critical"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="36" operator="equal">
-      <formula>"Major"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="37" operator="equal">
-      <formula>"Average"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="38" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="39" operator="equal">
-      <formula>"Enhancement"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="40" operator="equal">
-      <formula>"Partially tested"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="29" priority="21" operator="equal">
-      <formula>"Minor"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="22" operator="equal">
-      <formula>"Not implemented"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="23" operator="equal">
-      <formula>"Not tested"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="24" operator="equal">
-      <formula>"Not available"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="25" operator="equal">
-      <formula>"Critical"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="26" operator="equal">
-      <formula>"Major"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="27" operator="equal">
-      <formula>"Average"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="28" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="29" operator="equal">
-      <formula>"Enhancement"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="30" operator="equal">
-      <formula>"Partially tested"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="19" priority="11" operator="equal">
-      <formula>"Minor"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="12" operator="equal">
-      <formula>"Not implemented"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="13" operator="equal">
-      <formula>"Not tested"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="14" operator="equal">
-      <formula>"Not available"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
-      <formula>"Critical"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
-      <formula>"Major"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="17" operator="equal">
-      <formula>"Average"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="18" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="19" operator="equal">
-      <formula>"Enhancement"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="20" operator="equal">
-      <formula>"Partially tested"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
-      <formula>"Minor"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
-      <formula>"Not implemented"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
-      <formula>"Not tested"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
-      <formula>"Not available"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
-      <formula>"Critical"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
-      <formula>"Major"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
-      <formula>"Average"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="9" operator="equal">
-      <formula>"Enhancement"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="10" operator="equal">
-      <formula>"Partially tested"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A18:A33 A35:A48 A50:A56 A58" xr:uid="{545061B3-2236-4994-90C4-5B1A31825F32}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A18:A33 A72 A63:A68 A77:A78 A35:A47 A50:A60 A74:A75" xr:uid="{545061B3-2236-4994-90C4-5B1A31825F32}">
       <formula1>Test_coverage</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -9008,10 +7681,28 @@
     <hyperlink ref="F21" r:id="rId2" xr:uid="{C1E11370-919F-4793-99F0-D7A01B343CC3}"/>
     <hyperlink ref="F22" r:id="rId3" xr:uid="{5D1881F4-A114-42E1-BEEF-BCB25ABFE8BD}"/>
     <hyperlink ref="F33" r:id="rId4" xr:uid="{EBEF5E61-5A78-43B9-B061-EA5A33304B22}"/>
-    <hyperlink ref="F45" r:id="rId5" xr:uid="{0261AFBC-2E3D-4173-A1B8-84E1E90193A3}"/>
-    <hyperlink ref="F46" r:id="rId6" xr:uid="{DF2BCE00-AFDE-4E63-89F7-FE2A02A5C36E}"/>
-    <hyperlink ref="F58" r:id="rId7" xr:uid="{13756C68-6999-45BF-974A-04924292D60B}"/>
-    <hyperlink ref="F50" r:id="rId8" xr:uid="{EADE925D-5E36-4D5C-9E6F-33B79737D698}"/>
+    <hyperlink ref="F44" r:id="rId5" xr:uid="{0261AFBC-2E3D-4173-A1B8-84E1E90193A3}"/>
+    <hyperlink ref="F75" r:id="rId6" xr:uid="{DF2BCE00-AFDE-4E63-89F7-FE2A02A5C36E}"/>
+    <hyperlink ref="F72" r:id="rId7" xr:uid="{13756C68-6999-45BF-974A-04924292D60B}"/>
+    <hyperlink ref="F63" r:id="rId8" xr:uid="{EADE925D-5E36-4D5C-9E6F-33B79737D698}"/>
+    <hyperlink ref="F69" r:id="rId9" xr:uid="{64914F00-40EF-4DBC-95C8-6467D503E633}"/>
+    <hyperlink ref="F47" r:id="rId10" xr:uid="{118BEC92-50BB-4059-B16A-7156F66738C4}"/>
+    <hyperlink ref="F78" r:id="rId11" xr:uid="{07F8B486-1491-4CF7-AE9F-B1570A360B80}"/>
+    <hyperlink ref="F50" r:id="rId12" xr:uid="{6B1E3BFA-2CEA-4BA9-A42F-61B3DCE778AE}"/>
+    <hyperlink ref="F48" r:id="rId13" xr:uid="{1A795750-3C96-472D-841A-5E91A5B0AA4D}"/>
+    <hyperlink ref="F51" r:id="rId14" xr:uid="{D69A3C2F-F01F-4D7E-AD56-6E831BE89500}"/>
+    <hyperlink ref="F57" r:id="rId15" xr:uid="{A8DE168C-C098-40A0-9F4D-1755268BC515}"/>
+    <hyperlink ref="F56" r:id="rId16" xr:uid="{1DCB3C7F-8813-4EEC-8737-95C10D2949AD}"/>
+    <hyperlink ref="F58" r:id="rId17" xr:uid="{6B47E4B8-02E6-4687-A34C-97152949352C}"/>
+    <hyperlink ref="F59:F60" r:id="rId18" display="QATC-911284" xr:uid="{FECC8C31-F9E2-45BA-B89D-53494C6ED726}"/>
+    <hyperlink ref="F61" r:id="rId19" xr:uid="{C78E7C5A-E0A6-409B-90E6-ECEAF44AB513}"/>
+    <hyperlink ref="F77" r:id="rId20" xr:uid="{2D454C1D-DBAC-40C8-9C68-1206DDF98E59}"/>
+    <hyperlink ref="F79" r:id="rId21" xr:uid="{0C80C4E8-08FA-44FB-A084-3B44F8ECD068}"/>
+    <hyperlink ref="F80" r:id="rId22" xr:uid="{01C2F745-B153-4A13-BE6A-D1C27A219382}"/>
+    <hyperlink ref="F81" r:id="rId23" xr:uid="{6AB2B4B6-A66E-4F5E-A73B-F07EFDA4FE9E}"/>
+    <hyperlink ref="F82" r:id="rId24" xr:uid="{894A82D6-BAB5-420B-A4F9-CDC3FB16AC50}"/>
+    <hyperlink ref="F83" r:id="rId25" xr:uid="{06D3A097-8F86-464C-AF70-477F1FBE05F9}"/>
+    <hyperlink ref="F84" r:id="rId26" xr:uid="{14E57620-993E-488F-BF16-49191755A3E8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/kimba2-test-survey.xlsx
+++ b/kimba2-test-survey.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\kimba-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A13F55C-2E2F-4A47-938D-1A0B922F7FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69392649-2A4A-4219-94D1-58486FF15A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -294,9 +294,6 @@
     <t>Images are loaded from selected folder.</t>
   </si>
   <si>
-    <t>Main Window &amp; File menu</t>
-  </si>
-  <si>
     <t>Verify that user can create a gallery (ZIP File).</t>
   </si>
   <si>
@@ -646,6 +643,9 @@
   </si>
   <si>
     <t>QATC-911470</t>
+  </si>
+  <si>
+    <t>Main window &amp; File menu</t>
   </si>
 </sst>
 </file>
@@ -899,7 +899,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -989,15 +989,6 @@
     <xf numFmtId="0" fontId="18" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1016,11 +1007,14 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3522,8 +3516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74:B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3539,19 +3533,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="38" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="42"/>
+      <c r="E1" s="39"/>
       <c r="F1" s="1" t="s">
         <v>21</v>
       </c>
@@ -3561,15 +3555,15 @@
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="42"/>
+      <c r="E2" s="39"/>
       <c r="F2" s="1" t="s">
         <v>32</v>
       </c>
@@ -3579,13 +3573,13 @@
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="41"/>
-      <c r="B3" s="41"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="41"/>
+      <c r="E3" s="38"/>
       <c r="F3" s="1" t="s">
         <v>33</v>
       </c>
@@ -3595,10 +3589,10 @@
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="37" t="s">
         <v>26</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -3606,7 +3600,7 @@
       </c>
       <c r="D4" s="11">
         <f>(SUM(D5:D14))</f>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="2"/>
@@ -3614,8 +3608,8 @@
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
-      <c r="B5" s="39"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
@@ -3628,8 +3622,8 @@
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="39"/>
-      <c r="B6" s="39"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="5" t="s">
         <v>7</v>
       </c>
@@ -3642,8 +3636,8 @@
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
-      <c r="B7" s="39"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="5" t="s">
         <v>8</v>
       </c>
@@ -3656,8 +3650,8 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="39"/>
-      <c r="B8" s="39"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
       <c r="C8" s="5" t="s">
         <v>9</v>
       </c>
@@ -3670,8 +3664,8 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="39"/>
-      <c r="B9" s="39"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="36"/>
       <c r="C9" s="5" t="s">
         <v>10</v>
       </c>
@@ -3684,13 +3678,13 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="39"/>
-      <c r="B10" s="39"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
       <c r="C10" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -3698,8 +3692,8 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
-      <c r="B11" s="39"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="36"/>
       <c r="C11" s="5" t="s">
         <v>12</v>
       </c>
@@ -3712,8 +3706,8 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="39"/>
-      <c r="B12" s="39"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
       <c r="C12" s="5" t="s">
         <v>13</v>
       </c>
@@ -3726,8 +3720,8 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
-      <c r="B13" s="39"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
       <c r="C13" s="5" t="s">
         <v>14</v>
       </c>
@@ -3740,8 +3734,8 @@
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
-      <c r="B14" s="39"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
       <c r="C14" s="5" t="s">
         <v>15</v>
       </c>
@@ -3754,13 +3748,13 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="39"/>
-      <c r="B15" s="39"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="36"/>
       <c r="C15" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="D15" s="11" t="s">
         <v>194</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>195</v>
       </c>
       <c r="E15" s="2"/>
     </row>
@@ -3789,7 +3783,7 @@
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="32" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
@@ -3802,7 +3796,7 @@
       <c r="A18" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="34" t="s">
         <v>27</v>
       </c>
       <c r="C18" s="12" t="s">
@@ -3822,7 +3816,7 @@
       <c r="A19" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B19" s="37"/>
+      <c r="B19" s="34"/>
       <c r="C19" s="13" t="s">
         <v>40</v>
       </c>
@@ -3842,7 +3836,7 @@
       <c r="A20" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="37"/>
+      <c r="B20" s="34"/>
       <c r="C20" s="13" t="s">
         <v>42</v>
       </c>
@@ -3862,7 +3856,7 @@
       <c r="A21" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="37"/>
+      <c r="B21" s="34"/>
       <c r="C21" s="13" t="s">
         <v>43</v>
       </c>
@@ -3882,7 +3876,7 @@
       <c r="A22" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="37"/>
+      <c r="B22" s="34"/>
       <c r="C22" s="13" t="s">
         <v>46</v>
       </c>
@@ -3902,7 +3896,7 @@
       <c r="A23" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="37"/>
+      <c r="B23" s="34"/>
       <c r="C23" s="13" t="s">
         <v>47</v>
       </c>
@@ -3920,7 +3914,7 @@
       <c r="A24" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="37"/>
+      <c r="B24" s="34"/>
       <c r="C24" s="13" t="s">
         <v>50</v>
       </c>
@@ -3938,7 +3932,7 @@
       <c r="A25" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="37"/>
+      <c r="B25" s="34"/>
       <c r="C25" s="13" t="s">
         <v>49</v>
       </c>
@@ -3956,7 +3950,7 @@
       <c r="A26" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="37"/>
+      <c r="B26" s="34"/>
       <c r="C26" s="13" t="s">
         <v>51</v>
       </c>
@@ -3974,7 +3968,7 @@
       <c r="A27" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="37"/>
+      <c r="B27" s="34"/>
       <c r="C27" s="13" t="s">
         <v>52</v>
       </c>
@@ -3992,7 +3986,7 @@
       <c r="A28" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="37"/>
+      <c r="B28" s="34"/>
       <c r="C28" s="13" t="s">
         <v>54</v>
       </c>
@@ -4010,7 +4004,7 @@
       <c r="A29" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="37"/>
+      <c r="B29" s="34"/>
       <c r="C29" s="13" t="s">
         <v>56</v>
       </c>
@@ -4028,7 +4022,7 @@
       <c r="A30" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="37"/>
+      <c r="B30" s="34"/>
       <c r="C30" s="13" t="s">
         <v>58</v>
       </c>
@@ -4046,7 +4040,7 @@
       <c r="A31" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="37"/>
+      <c r="B31" s="34"/>
       <c r="C31" s="13" t="s">
         <v>60</v>
       </c>
@@ -4064,7 +4058,7 @@
       <c r="A32" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="37"/>
+      <c r="B32" s="34"/>
       <c r="C32" s="13" t="s">
         <v>62</v>
       </c>
@@ -4082,7 +4076,7 @@
       <c r="A33" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="37"/>
+      <c r="B33" s="34"/>
       <c r="C33" s="13" t="s">
         <v>63</v>
       </c>
@@ -4101,7 +4095,7 @@
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="30"/>
       <c r="B34" s="32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C34" s="27"/>
       <c r="D34" s="27"/>
@@ -4114,8 +4108,8 @@
       <c r="A35" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B35" s="34" t="s">
-        <v>81</v>
+      <c r="B35" s="40" t="s">
+        <v>198</v>
       </c>
       <c r="C35" s="12" t="s">
         <v>70</v>
@@ -4134,12 +4128,12 @@
       <c r="A36" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B36" s="36"/>
+      <c r="B36" s="42"/>
       <c r="C36" s="13" t="s">
         <v>71</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E36" s="14" t="s">
         <v>6</v>
@@ -4152,12 +4146,12 @@
       <c r="A37" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="36"/>
+      <c r="B37" s="42"/>
       <c r="C37" s="13" t="s">
         <v>72</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E37" s="14" t="s">
         <v>6</v>
@@ -4170,12 +4164,12 @@
       <c r="A38" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B38" s="36"/>
+      <c r="B38" s="42"/>
       <c r="C38" s="13" t="s">
         <v>73</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E38" s="14" t="s">
         <v>6</v>
@@ -4188,12 +4182,12 @@
       <c r="A39" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B39" s="36"/>
+      <c r="B39" s="42"/>
       <c r="C39" s="13" t="s">
         <v>74</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E39" s="14" t="s">
         <v>6</v>
@@ -4206,12 +4200,12 @@
       <c r="A40" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B40" s="36"/>
+      <c r="B40" s="42"/>
       <c r="C40" s="13" t="s">
         <v>75</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E40" s="14" t="s">
         <v>6</v>
@@ -4224,12 +4218,12 @@
       <c r="A41" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B41" s="36"/>
+      <c r="B41" s="42"/>
       <c r="C41" s="13" t="s">
         <v>77</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E41" s="14" t="s">
         <v>6</v>
@@ -4242,12 +4236,12 @@
       <c r="A42" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B42" s="36"/>
+      <c r="B42" s="42"/>
       <c r="C42" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E42" s="14" t="s">
         <v>6</v>
@@ -4260,12 +4254,12 @@
       <c r="A43" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B43" s="36"/>
+      <c r="B43" s="42"/>
       <c r="C43" s="13" t="s">
         <v>78</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E43" s="14" t="s">
         <v>6</v>
@@ -4278,18 +4272,18 @@
       <c r="A44" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B44" s="36"/>
+      <c r="B44" s="42"/>
       <c r="C44" s="13" t="s">
         <v>79</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E44" s="14" t="s">
         <v>11</v>
       </c>
       <c r="F44" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
@@ -4298,12 +4292,12 @@
       <c r="A45" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B45" s="36"/>
+      <c r="B45" s="42"/>
       <c r="C45" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E45" s="14" t="s">
         <v>6</v>
@@ -4316,12 +4310,12 @@
       <c r="A46" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B46" s="36"/>
+      <c r="B46" s="42"/>
       <c r="C46" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E46" s="14" t="s">
         <v>6</v>
@@ -4334,18 +4328,18 @@
       <c r="A47" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B47" s="36"/>
+      <c r="B47" s="42"/>
       <c r="C47" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D47" s="13" t="s">
         <v>131</v>
-      </c>
-      <c r="D47" s="13" t="s">
-        <v>132</v>
       </c>
       <c r="E47" s="14" t="s">
         <v>12</v>
       </c>
       <c r="F47" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
@@ -4354,18 +4348,18 @@
       <c r="A48" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B48" s="35"/>
+      <c r="B48" s="41"/>
       <c r="C48" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D48" s="13" t="s">
         <v>138</v>
-      </c>
-      <c r="D48" s="13" t="s">
-        <v>139</v>
       </c>
       <c r="E48" s="14" t="s">
         <v>11</v>
       </c>
       <c r="F48" s="28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
@@ -4373,7 +4367,7 @@
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="30"/>
       <c r="B49" s="32" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C49" s="27"/>
       <c r="D49" s="27"/>
@@ -4386,20 +4380,20 @@
       <c r="A50" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B50" s="34" t="s">
+      <c r="B50" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="C50" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="C50" s="12" t="s">
+      <c r="D50" s="13" t="s">
         <v>142</v>
-      </c>
-      <c r="D50" s="13" t="s">
-        <v>143</v>
       </c>
       <c r="E50" s="14" t="s">
         <v>11</v>
       </c>
       <c r="F50" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
@@ -4408,18 +4402,18 @@
       <c r="A51" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B51" s="36"/>
+      <c r="B51" s="42"/>
       <c r="C51" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="D51" s="12" t="s">
         <v>146</v>
-      </c>
-      <c r="D51" s="12" t="s">
-        <v>147</v>
       </c>
       <c r="E51" s="14" t="s">
         <v>11</v>
       </c>
       <c r="F51" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
@@ -4428,12 +4422,12 @@
       <c r="A52" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="B52" s="36"/>
+      <c r="B52" s="42"/>
       <c r="C52" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E52" s="14" t="s">
         <v>6</v>
@@ -4446,12 +4440,12 @@
       <c r="A53" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="B53" s="36"/>
+      <c r="B53" s="42"/>
       <c r="C53" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E53" s="14" t="s">
         <v>6</v>
@@ -4464,12 +4458,12 @@
       <c r="A54" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="B54" s="36"/>
+      <c r="B54" s="42"/>
       <c r="C54" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E54" s="14" t="s">
         <v>6</v>
@@ -4482,12 +4476,12 @@
       <c r="A55" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="B55" s="36"/>
+      <c r="B55" s="42"/>
       <c r="C55" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E55" s="14" t="s">
         <v>6</v>
@@ -4500,18 +4494,18 @@
       <c r="A56" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B56" s="36"/>
+      <c r="B56" s="42"/>
       <c r="C56" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E56" s="14" t="s">
         <v>12</v>
       </c>
       <c r="F56" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
@@ -4520,18 +4514,18 @@
       <c r="A57" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B57" s="36"/>
+      <c r="B57" s="42"/>
       <c r="C57" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E57" s="14" t="s">
         <v>12</v>
       </c>
       <c r="F57" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
@@ -4540,18 +4534,18 @@
       <c r="A58" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B58" s="36"/>
+      <c r="B58" s="42"/>
       <c r="C58" s="23" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D58" s="23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E58" s="14" t="s">
         <v>12</v>
       </c>
       <c r="F58" s="28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
@@ -4560,18 +4554,18 @@
       <c r="A59" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B59" s="36"/>
+      <c r="B59" s="42"/>
       <c r="C59" s="23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E59" s="14" t="s">
         <v>12</v>
       </c>
       <c r="F59" s="28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
@@ -4580,18 +4574,18 @@
       <c r="A60" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B60" s="36"/>
+      <c r="B60" s="42"/>
       <c r="C60" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E60" s="14" t="s">
         <v>12</v>
       </c>
       <c r="F60" s="28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
@@ -4600,18 +4594,18 @@
       <c r="A61" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B61" s="35"/>
+      <c r="B61" s="41"/>
       <c r="C61" s="23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E61" s="14" t="s">
         <v>11</v>
       </c>
       <c r="F61" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
@@ -4619,7 +4613,7 @@
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="30"/>
       <c r="B62" s="32" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C62" s="27"/>
       <c r="D62" s="27"/>
@@ -4632,20 +4626,20 @@
       <c r="A63" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B63" s="34" t="s">
+      <c r="B63" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="C63" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="C63" s="12" t="s">
+      <c r="D63" s="13" t="s">
         <v>102</v>
-      </c>
-      <c r="D63" s="13" t="s">
-        <v>103</v>
       </c>
       <c r="E63" s="14" t="s">
         <v>11</v>
       </c>
       <c r="F63" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
@@ -4654,12 +4648,12 @@
       <c r="A64" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B64" s="36"/>
+      <c r="B64" s="42"/>
       <c r="C64" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E64" s="14" t="s">
         <v>6</v>
@@ -4672,12 +4666,12 @@
       <c r="A65" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B65" s="36"/>
+      <c r="B65" s="42"/>
       <c r="C65" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E65" s="14" t="s">
         <v>6</v>
@@ -4690,12 +4684,12 @@
       <c r="A66" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B66" s="36"/>
+      <c r="B66" s="42"/>
       <c r="C66" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D66" s="12" t="s">
         <v>112</v>
-      </c>
-      <c r="D66" s="12" t="s">
-        <v>113</v>
       </c>
       <c r="E66" s="14" t="s">
         <v>6</v>
@@ -4708,12 +4702,12 @@
       <c r="A67" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B67" s="36"/>
+      <c r="B67" s="42"/>
       <c r="C67" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D67" s="12" t="s">
         <v>116</v>
-      </c>
-      <c r="D67" s="12" t="s">
-        <v>117</v>
       </c>
       <c r="E67" s="14" t="s">
         <v>13</v>
@@ -4726,12 +4720,12 @@
       <c r="A68" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B68" s="36"/>
+      <c r="B68" s="42"/>
       <c r="C68" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D68" s="12" t="s">
         <v>118</v>
-      </c>
-      <c r="D68" s="12" t="s">
-        <v>119</v>
       </c>
       <c r="E68" s="14" t="s">
         <v>6</v>
@@ -4743,18 +4737,18 @@
       <c r="A69" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B69" s="36"/>
+      <c r="B69" s="42"/>
       <c r="C69" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E69" s="14" t="s">
         <v>10</v>
       </c>
       <c r="F69" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G69" s="2"/>
     </row>
@@ -4762,12 +4756,12 @@
       <c r="A70" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B70" s="35"/>
+      <c r="B70" s="41"/>
       <c r="C70" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E70" s="14" t="s">
         <v>6</v>
@@ -4778,7 +4772,7 @@
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="30"/>
       <c r="B71" s="32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C71" s="27"/>
       <c r="D71" s="27"/>
@@ -4791,26 +4785,26 @@
         <v>69</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C72" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D72" s="13" t="s">
         <v>106</v>
-      </c>
-      <c r="D72" s="13" t="s">
-        <v>107</v>
       </c>
       <c r="E72" s="14" t="s">
         <v>10</v>
       </c>
       <c r="F72" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="30"/>
       <c r="B73" s="32" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C73" s="27"/>
       <c r="D73" s="27"/>
@@ -4822,14 +4816,14 @@
       <c r="A74" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B74" s="34" t="s">
-        <v>149</v>
+      <c r="B74" s="40" t="s">
+        <v>148</v>
       </c>
       <c r="C74" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D74" s="12" t="s">
         <v>99</v>
-      </c>
-      <c r="D74" s="12" t="s">
-        <v>100</v>
       </c>
       <c r="E74" s="14" t="s">
         <v>15</v>
@@ -4841,25 +4835,25 @@
       <c r="A75" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B75" s="35"/>
+      <c r="B75" s="41"/>
       <c r="C75" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E75" s="14" t="s">
         <v>11</v>
       </c>
       <c r="F75" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="30"/>
       <c r="B76" s="32" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C76" s="27"/>
       <c r="D76" s="27"/>
@@ -4871,20 +4865,20 @@
       <c r="A77" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="B77" s="34" t="s">
-        <v>137</v>
+      <c r="B77" s="40" t="s">
+        <v>136</v>
       </c>
       <c r="C77" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D77" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E77" s="22" t="s">
         <v>9</v>
       </c>
       <c r="F77" s="17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G77" s="2"/>
     </row>
@@ -4892,18 +4886,18 @@
       <c r="A78" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B78" s="36"/>
+      <c r="B78" s="42"/>
       <c r="C78" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D78" s="12" t="s">
         <v>134</v>
-      </c>
-      <c r="D78" s="12" t="s">
-        <v>135</v>
       </c>
       <c r="E78" s="22" t="s">
         <v>9</v>
       </c>
       <c r="F78" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G78" s="2"/>
     </row>
@@ -4911,18 +4905,18 @@
       <c r="A79" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="B79" s="36"/>
+      <c r="B79" s="42"/>
       <c r="C79" s="23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D79" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E79" s="22" t="s">
         <v>9</v>
       </c>
       <c r="F79" s="28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G79" s="2"/>
     </row>
@@ -4930,18 +4924,18 @@
       <c r="A80" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="B80" s="36"/>
+      <c r="B80" s="42"/>
       <c r="C80" s="23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D80" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E80" s="22" t="s">
         <v>9</v>
       </c>
       <c r="F80" s="28" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G80" s="2"/>
     </row>
@@ -4949,18 +4943,18 @@
       <c r="A81" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B81" s="36"/>
+      <c r="B81" s="42"/>
       <c r="C81" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="D81" s="13" t="s">
         <v>181</v>
-      </c>
-      <c r="D81" s="13" t="s">
-        <v>182</v>
       </c>
       <c r="E81" s="22" t="s">
         <v>9</v>
       </c>
       <c r="F81" s="28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G81" s="2"/>
     </row>
@@ -4968,18 +4962,18 @@
       <c r="A82" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B82" s="36"/>
+      <c r="B82" s="42"/>
       <c r="C82" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="D82" s="13" t="s">
         <v>184</v>
-      </c>
-      <c r="D82" s="13" t="s">
-        <v>185</v>
       </c>
       <c r="E82" s="22" t="s">
         <v>9</v>
       </c>
       <c r="F82" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G82" s="2"/>
     </row>
@@ -4987,18 +4981,18 @@
       <c r="A83" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B83" s="36"/>
+      <c r="B83" s="42"/>
       <c r="C83" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="D83" s="13" t="s">
         <v>187</v>
-      </c>
-      <c r="D83" s="13" t="s">
-        <v>188</v>
       </c>
       <c r="E83" s="22" t="s">
         <v>9</v>
       </c>
       <c r="F83" s="28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G83" s="2"/>
     </row>
@@ -5006,41 +5000,46 @@
       <c r="A84" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B84" s="36"/>
+      <c r="B84" s="42"/>
       <c r="C84" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="D84" s="13" t="s">
         <v>190</v>
-      </c>
-      <c r="D84" s="13" t="s">
-        <v>191</v>
       </c>
       <c r="E84" s="22" t="s">
         <v>9</v>
       </c>
       <c r="F84" s="28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G84" s="2"/>
     </row>
     <row r="85" spans="1:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="A85" s="43" t="s">
+      <c r="A85" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="B85" s="35"/>
-      <c r="C85" s="44" t="s">
+      <c r="B85" s="41"/>
+      <c r="C85" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="D85" s="13" t="s">
         <v>196</v>
-      </c>
-      <c r="D85" s="44" t="s">
-        <v>197</v>
       </c>
       <c r="E85" s="22" t="s">
         <v>9</v>
       </c>
       <c r="F85" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="B35:B48"/>
+    <mergeCell ref="B50:B61"/>
+    <mergeCell ref="B63:B70"/>
+    <mergeCell ref="B77:B85"/>
     <mergeCell ref="B18:B33"/>
     <mergeCell ref="A4:A15"/>
     <mergeCell ref="B4:B15"/>
@@ -5049,11 +5048,6 @@
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="B35:B48"/>
-    <mergeCell ref="B50:B61"/>
-    <mergeCell ref="B63:B70"/>
-    <mergeCell ref="B77:B85"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="C4 D16:F17 D34:F34 F35:F43 F45:F47 D49:F49 F50:F57 D62:F62 F63:F68 D71:F71 F74 D76:F76 F77:F78">
